--- a/Packages/cn.etetet.startconfig/Luban/Mmo/Datas/StartScene.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Mmo/Datas/StartScene.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Mmo/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56A48E1-99E4-EB49-BB68-2DE5B872FE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CE9AE0-5B9A-EF43-AC8B-D931FC385D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17240" yWindow="4020" windowWidth="31180" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17080" yWindow="4020" windowWidth="31180" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
